--- a/biology/Histoire de la zoologie et de la botanique/Marinus_Steven_Hoogmoed/Marinus_Steven_Hoogmoed.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Marinus_Steven_Hoogmoed/Marinus_Steven_Hoogmoed.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marinus Steven Hoogmoed est un herpétologiste néerlandais né en 1942.
 Il est diplômé de l'Université de Leyde.
@@ -512,11 +524,13 @@
           <t>Taxons nommés en son honneur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Arthrosaura hoogmoedi Kok, 2008[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Arthrosaura hoogmoedi Kok, 2008
 Atractus hoogmoedi Prudente &amp; Passos, 2010
-Lepidoblepharis hoogmoedi Ávila-Pires, 1995[1]
+Lepidoblepharis hoogmoedi Ávila-Pires, 1995
 Marinussaurus curupira Peloso, Pellegrino, Rodrigues &amp; Ávila-Pires, 2011
 Rhinella hoogmoedi Caramaschi &amp; Pombal, 2006</t>
         </is>
@@ -546,7 +560,9 @@
           <t>Espèces décrites</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines espèces listées ci-dessous ont été décrites avec la collaboration d'autres auteurs.
 Adelophryne
